--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -451,25 +451,25 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41690.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41690.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.84</v>
+        <v>2.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.66</v>
+        <v>4.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.71</v>
+        <v>3.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.16</v>
+        <v>5.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.76</v>
+        <v>2.48</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.64</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.33</v>
+        <v>23.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.43</v>
+        <v>4.44</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.85</v>
+        <v>3.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.09</v>
+        <v>2.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41690.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.93</v>
+        <v>3.89</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.54</v>
+        <v>3.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>55.05</v>
+        <v>5.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.05</v>
+        <v>1.71</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>203.02</v>
+        <v>20.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.31</v>
+        <v>3.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.45</v>
+        <v>2.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.37</v>
+        <v>4.94</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.75</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41690.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.14</v>
+        <v>5.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.81</v>
+        <v>4.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.23999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.35</v>
+        <v>2.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.1</v>
+        <v>2.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.89</v>
+        <v>2.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>270.62</v>
+        <v>27.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.78</v>
+        <v>5.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.78</v>
+        <v>3.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>64.08</v>
+        <v>6.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41690.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.03</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>42.91</v>
+        <v>4.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>35.11</v>
+        <v>3.51</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>61.62</v>
+        <v>6.16</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>226.03</v>
+        <v>22.6</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>42.68</v>
+        <v>4.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>29.22</v>
+        <v>2.92</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.39</v>
+        <v>1.54</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>29.53</v>
+        <v>2.95</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>55.49</v>
+        <v>5.55</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41690.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>34.29</v>
+        <v>3.43</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>111.6</v>
+        <v>11.16</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.88</v>
+        <v>3.09</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41690.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.17</v>
+        <v>2.62</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>44.2</v>
+        <v>4.42</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>166.53</v>
+        <v>16.65</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>31.75</v>
+        <v>3.17</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.36</v>
+        <v>2.14</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>39.66</v>
+        <v>3.97</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41690.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.87</v>
+        <v>3.49</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.6</v>
+        <v>2.86</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.95</v>
+        <v>4.89</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>182.58</v>
+        <v>18.26</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>34.75</v>
+        <v>3.48</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.69</v>
+        <v>2.37</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.13</v>
+        <v>4.41</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41690.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>117.36</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>31.02</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>4.26</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41690.34027777778</v>
+        <v>44939.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>2.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.37</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.8</v>
+        <v>4.28</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.47</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.44</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.69</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>1.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.58</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.21</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.34</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.7</v>
+        <v>23.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.39</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.34</v>
+        <v>1.46</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.45</v>
+        <v>2.91</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.32</v>
+        <v>1.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.16</v>
+        <v>2.52</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.29</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.17</v>
       </c>
       <c r="AC2" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>4.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41690.34722222222</v>
+        <v>44939.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>2.18</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="G3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.48</v>
-      </c>
       <c r="J3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>1.11</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.98</v>
+        <v>3.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41690.35416666666</v>
+        <v>44939.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.89</v>
+        <v>2.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.15</v>
+        <v>1.85</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.5</v>
+        <v>3.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.12</v>
+        <v>1.28</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M4" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="N4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>1.54</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.65</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.95</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.94</v>
+        <v>3.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41690.36111111111</v>
+        <v>44939.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>27.06</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.71</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>3.48</v>
+        <v>0.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.45</v>
+        <v>0.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.41</v>
+        <v>0.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41690.36805555555</v>
+        <v>44939.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>11.53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.46</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.29</v>
+        <v>25.01</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.51</v>
+        <v>20.42</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.52</v>
+        <v>9.07</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.16</v>
+        <v>31.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.36</v>
+        <v>13.96</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.07</v>
+        <v>6.12</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.58</v>
+        <v>9.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.71</v>
+        <v>10.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.85</v>
+        <v>10.55</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.49</v>
+        <v>2.89</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.52</v>
+        <v>9.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.17</v>
+        <v>12.74</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.26</v>
+        <v>7.69</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.52</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.6</v>
+        <v>129.97</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.27</v>
+        <v>25.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.43</v>
+        <v>8.33</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.92</v>
+        <v>16.73</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.54</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>1.44</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.95</v>
+        <v>15.39</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.25</v>
+        <v>7.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.09</v>
+        <v>6.58</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.33</v>
+        <v>7.72</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.79</v>
+        <v>10.49</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.55</v>
+        <v>28.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.8</v>
+        <v>4.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41690.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41690.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41690.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41690.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41690.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>32.95</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>27.07</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>172.29</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>32.86</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.56</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44939.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.1</v>
+        <v>51.01</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.3</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.16</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44939.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.94</v>
+        <v>39.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.15</v>
+        <v>141.47</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.42</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.59</v>
+        <v>35.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44939.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.28</v>
+        <v>22.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.33</v>
+        <v>33.34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.86</v>
+        <v>118.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.02</v>
+        <v>30.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44939.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44939.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.75</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.69</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.01</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.87</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.6</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>233</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.92</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.08</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.16</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.33</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.21</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
@@ -759,16 +759,16 @@
         <v>44939.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.677</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.678</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.84</v>
+        <v>26.836</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>21.75</v>
@@ -777,85 +777,85 @@
         <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.43</v>
+        <v>39.427</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.47</v>
+        <v>6.469</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.606</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.75</v>
+        <v>10.745</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.18</v>
+        <v>11.178</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.14</v>
+        <v>3.142</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.74</v>
+        <v>13.735</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.49</v>
+        <v>8.486000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.47</v>
+        <v>141.472</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.42</v>
+        <v>27.417</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.13</v>
+        <v>18.128</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.487</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.872</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.68</v>
+        <v>18.679</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.27</v>
+        <v>7.268</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.51</v>
+        <v>8.506</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.06</v>
+        <v>11.057</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.92</v>
+        <v>35.919</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.99</v>
+        <v>4.988</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44939.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.48</v>
+        <v>7.479</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.125</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.82</v>
+        <v>22.817</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.52</v>
+        <v>18.516</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.34</v>
+        <v>33.337</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.53</v>
+        <v>5.534</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.17</v>
+        <v>9.172000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.66</v>
+        <v>2.658</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.652</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.17</v>
+        <v>7.165</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.57</v>
+        <v>118.571</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.17</v>
+        <v>23.167</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.36</v>
+        <v>15.363</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.09</v>
+        <v>8.087</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.493</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.75</v>
+        <v>15.752</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.11</v>
+        <v>6.114</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.16</v>
+        <v>7.162</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.487</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.24</v>
+        <v>30.236</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44939.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44939.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.604</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.025</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.21</v>
+        <v>2.207</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.139</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>9.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.238</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.637</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.954000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.58</v>
+        <v>3.578</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.32</v>
+        <v>2.324</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.144</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.2</v>
+        <v>4.203</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.104</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.35</v>
+        <v>9.349</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44939.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>129.97</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_258.xlsx
+++ b/DATA_goal/Junction_Flooding_258.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44939.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.441</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.604</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.025</v>
+        <v>3.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.207</v>
+        <v>2.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.139</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>9.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.745</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.828</v>
+        <v>0.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.238</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.196</v>
+        <v>1.2</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.637</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.192</v>
+        <v>1.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.275</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.954000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.578</v>
+        <v>3.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.324</v>
+        <v>2.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.144</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.203</v>
+        <v>4.2</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.104</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.349</v>
+        <v>9.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.487</v>
+        <v>0.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.312</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44939.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>129.97</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
